--- a/docment/外部設計書/難易度選択画面.xlsx
+++ b/docment/外部設計書/難易度選択画面.xlsx
@@ -185,15 +185,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66540</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>100920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -202,8 +202,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2087880" y="274320"/>
-          <a:ext cx="899160" cy="274320"/>
+          <a:off x="2034540" y="243840"/>
+          <a:ext cx="1080000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -224,10 +224,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
             <a:t>マップに戻る</a:t>
@@ -240,15 +240,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15990</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -257,12 +257,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2362200" y="1943100"/>
-          <a:ext cx="2103120" cy="2103120"/>
+          <a:off x="2171700" y="2084070"/>
+          <a:ext cx="1800000" cy="1620000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -286,8 +292,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-            <a:t>やさしい</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>あそびかた</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -296,16 +306,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>359820</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15990</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -314,12 +324,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8420100" y="1958340"/>
-          <a:ext cx="2103120" cy="2103120"/>
+          <a:off x="8923020" y="2084070"/>
+          <a:ext cx="1800000" cy="1620000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -343,7 +359,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>むずかしい</a:t>
           </a:r>
         </a:p>
@@ -353,16 +373,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>576580</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>547780</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15990</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -371,12 +391,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5394960" y="1927860"/>
-          <a:ext cx="2103120" cy="2103120"/>
+          <a:off x="6672580" y="2084070"/>
+          <a:ext cx="1800000" cy="1620000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -400,8 +426,79 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>ふつう</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>154940</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>126140</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15990</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4422140" y="2084070"/>
+          <a:ext cx="1800000" cy="1620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>やさしい</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -700,7 +797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
